--- a/PV_ICE/baselines/SupportingMaterial/RELOG_PV_ICE.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/RELOG_PV_ICE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmendez/Documents/Postdoc/Software_dev/PV_ICE/PV_ICE/baselines/SupportingMaterial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8E61C3-C79A-174B-BBC4-6B6C3256372B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0492F8BC-0E3F-1A4A-9F87-4CB744F6ABDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="5" xr2:uid="{A88AA2FF-A3B7-0742-B104-CB95A497A6C8}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="4" xr2:uid="{A88AA2FF-A3B7-0742-B104-CB95A497A6C8}"/>
   </bookViews>
   <sheets>
     <sheet name="CdTe Capacity from eia" sheetId="9" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="474">
   <si>
     <t>cpmtdisp​</t>
   </si>
@@ -1436,6 +1436,60 @@
   <si>
     <t>Tellurium does not have a unique CO2 footprint beyond energy requirements of mining in general</t>
   </si>
+  <si>
+    <t>https://pubs.usgs.gov/of/2002/of02-238/of02-238.pdf</t>
+  </si>
+  <si>
+    <t>85% of cadmium of the 20% of cadmium seen in batteries is recycled</t>
+  </si>
+  <si>
+    <t>The amount of cadmium in scrap that was unrecovered in 2000 was estimated to be 2,030 metric tons, and an estimated 285 tons was recovered. Recycling efficiency was estimated to be about 15 percent.</t>
+  </si>
+  <si>
+    <t>From here, 4% is lost in manufacturing, and of that, 1% is lost in battery manufacturing. Could we assume the same numbers?</t>
+  </si>
+  <si>
+    <t>Mng efficiency: 96%</t>
+  </si>
+  <si>
+    <t>Refinning efficiency</t>
+  </si>
+  <si>
+    <t>mat_MFG_eff</t>
+  </si>
+  <si>
+    <t>mat_MFG_scrap_Recycled</t>
+  </si>
+  <si>
+    <t>mat_MFG_scrap_Recycling_eff</t>
+  </si>
+  <si>
+    <t>mat_MFG_scrap_Recycled_into_HQ</t>
+  </si>
+  <si>
+    <t>mat_MFG_scrap_Recycled_into_HQ_Reused4MFG</t>
+  </si>
+  <si>
+    <t>mat_PG3_ReMFG_target</t>
+  </si>
+  <si>
+    <t>mat_ReMFG_yield</t>
+  </si>
+  <si>
+    <t>mat_PG4_Recycling_target</t>
+  </si>
+  <si>
+    <t>mat_Recycling_yield</t>
+  </si>
+  <si>
+    <t>mat_EOL_Recycled_into_HQ</t>
+  </si>
+  <si>
+    <t>mat_EOL_RecycledHQ_Reused4MFG</t>
+  </si>
+  <si>
+    <t>Cadmium material flows, 95% of refining efficiency, plus 96% of manufacturing efficiency for batteries, can we assume the same?</t>
+  </si>
 </sst>
 </file>
 
@@ -1443,8 +1497,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="171" formatCode="0.00000000"/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1903,51 +1957,51 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Body: normal cell" xfId="2" xr:uid="{35C5082C-3956-FA4D-91AD-99F399DF9143}"/>
@@ -8822,7 +8876,7 @@
     <col min="3" max="3" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>360</v>
       </c>
@@ -15446,24 +15500,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
       <c r="E1" s="13"/>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
       <c r="I1" s="14"/>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -16045,11 +16099,11 @@
         <v>180</v>
       </c>
       <c r="I19" s="14"/>
-      <c r="J19" s="43" t="s">
+      <c r="J19" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
@@ -16410,12 +16464,12 @@
       <c r="L32" s="14"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="60" t="s">
         <v>275</v>
       </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
@@ -16647,8 +16701,8 @@
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="44" customWidth="1"/>
-    <col min="11" max="13" width="10.83203125" style="44"/>
+    <col min="10" max="10" width="13.33203125" style="42" customWidth="1"/>
+    <col min="11" max="13" width="10.83203125" style="42"/>
     <col min="15" max="16" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16662,10 +16716,10 @@
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
       <c r="I1" s="25"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="25"/>
@@ -16687,10 +16741,10 @@
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
@@ -16714,22 +16768,22 @@
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
-      <c r="J3" s="51" t="s">
+      <c r="J3" s="49" t="s">
         <v>315</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="49" t="s">
         <v>316</v>
       </c>
-      <c r="L3" s="51" t="s">
+      <c r="L3" s="49" t="s">
         <v>317</v>
       </c>
-      <c r="M3" s="51" t="s">
+      <c r="M3" s="49" t="s">
         <v>318</v>
       </c>
-      <c r="O3" s="48" t="s">
+      <c r="O3" s="46" t="s">
         <v>367</v>
       </c>
-      <c r="P3" s="48" t="s">
+      <c r="P3" s="46" t="s">
         <v>368</v>
       </c>
     </row>
@@ -16755,17 +16809,17 @@
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
       <c r="I4" s="26"/>
-      <c r="J4" s="49">
+      <c r="J4" s="47">
         <f>3/1000000</f>
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="K4" s="49">
+      <c r="K4" s="47">
         <v>1</v>
       </c>
-      <c r="L4" s="49">
+      <c r="L4" s="47">
         <v>1</v>
       </c>
-      <c r="M4" s="49">
+      <c r="M4" s="47">
         <f>J4*K4*L4</f>
         <v>3.0000000000000001E-6</v>
       </c>
@@ -16790,17 +16844,17 @@
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="26"/>
-      <c r="J5" s="49">
+      <c r="J5" s="47">
         <f>2/1000000</f>
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="K5" s="49">
+      <c r="K5" s="47">
         <v>1</v>
       </c>
-      <c r="L5" s="49">
+      <c r="L5" s="47">
         <v>1</v>
       </c>
-      <c r="M5" s="49">
+      <c r="M5" s="47">
         <f>J5*K5*L5</f>
         <v>1.9999999999999999E-6</v>
       </c>
@@ -16827,10 +16881,10 @@
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
       <c r="I6" s="26"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
@@ -16854,16 +16908,16 @@
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="26"/>
-      <c r="J7" s="52" t="s">
+      <c r="J7" s="50" t="s">
         <v>324</v>
       </c>
-      <c r="K7" s="52" t="s">
+      <c r="K7" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="L7" s="52" t="s">
+      <c r="L7" s="50" t="s">
         <v>326</v>
       </c>
-      <c r="M7" s="50"/>
+      <c r="M7" s="48"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
@@ -16887,19 +16941,19 @@
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
-      <c r="J8" s="53">
+      <c r="J8" s="51">
         <f>M4*$E$9*1000000</f>
         <v>17.55</v>
       </c>
-      <c r="K8" s="53">
+      <c r="K8" s="51">
         <f>J8*$E$14</f>
         <v>8.2196776397748437</v>
       </c>
-      <c r="L8" s="53">
+      <c r="L8" s="51">
         <f>J8*$E$15</f>
         <v>9.3303223602251553</v>
       </c>
-      <c r="M8" s="50"/>
+      <c r="M8" s="48"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
@@ -16923,19 +16977,19 @@
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
-      <c r="J9" s="53">
+      <c r="J9" s="51">
         <f>M5*$E$9*1000000</f>
         <v>11.699999999999998</v>
       </c>
-      <c r="K9" s="53">
+      <c r="K9" s="51">
         <f>J9*$E$14</f>
         <v>5.4797850931832279</v>
       </c>
-      <c r="L9" s="53">
+      <c r="L9" s="51">
         <f>J9*$E$15</f>
         <v>6.2202149068167687</v>
       </c>
-      <c r="M9" s="50"/>
+      <c r="M9" s="48"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
@@ -16953,10 +17007,10 @@
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
@@ -16974,10 +17028,10 @@
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
@@ -16995,16 +17049,16 @@
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="54" t="s">
+      <c r="J12" s="52" t="s">
         <v>315</v>
       </c>
-      <c r="K12" s="54" t="s">
+      <c r="K12" s="52" t="s">
         <v>316</v>
       </c>
-      <c r="L12" s="54" t="s">
+      <c r="L12" s="52" t="s">
         <v>317</v>
       </c>
-      <c r="M12" s="54" t="s">
+      <c r="M12" s="52" t="s">
         <v>318</v>
       </c>
     </row>
@@ -17020,16 +17074,16 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="55">
+      <c r="J13" s="53">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="K13" s="55">
+      <c r="K13" s="53">
         <v>1</v>
       </c>
-      <c r="L13" s="55">
+      <c r="L13" s="53">
         <v>1</v>
       </c>
-      <c r="M13" s="55">
+      <c r="M13" s="53">
         <v>6.0000000000000002E-6</v>
       </c>
     </row>
@@ -17052,10 +17106,10 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
@@ -17074,16 +17128,16 @@
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
-      <c r="J15" s="56" t="s">
+      <c r="J15" s="54" t="s">
         <v>341</v>
       </c>
-      <c r="K15" s="56" t="s">
+      <c r="K15" s="54" t="s">
         <v>325</v>
       </c>
-      <c r="L15" s="56" t="s">
+      <c r="L15" s="54" t="s">
         <v>342</v>
       </c>
-      <c r="M15" s="50"/>
+      <c r="M15" s="48"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="25"/>
@@ -17095,16 +17149,16 @@
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
-      <c r="J16" s="57">
+      <c r="J16" s="55">
         <v>2.9E-5</v>
       </c>
-      <c r="K16" s="57">
+      <c r="K16" s="55">
         <v>2.2500000000000001E-5</v>
       </c>
-      <c r="L16" s="57">
+      <c r="L16" s="55">
         <v>6.4300000000000003E-6</v>
       </c>
-      <c r="M16" s="50"/>
+      <c r="M16" s="48"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="25"/>
@@ -17116,10 +17170,10 @@
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
       <c r="N17" t="s">
         <v>343</v>
       </c>
@@ -17134,10 +17188,10 @@
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
       <c r="N18">
         <v>17</v>
       </c>
@@ -17152,10 +17206,10 @@
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="25"/>
@@ -17167,10 +17221,10 @@
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="25"/>
@@ -17182,10 +17236,10 @@
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
       <c r="I21" s="25"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="25"/>
@@ -17197,10 +17251,10 @@
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="25"/>
@@ -17212,16 +17266,16 @@
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17970,7 +18024,7 @@
       <c r="A2">
         <v>1995</v>
       </c>
-      <c r="D2" s="45">
+      <c r="D2" s="43">
         <v>10.6</v>
       </c>
       <c r="F2" s="29">
@@ -17984,7 +18038,7 @@
       <c r="A3">
         <v>1996</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="43">
         <v>9.1</v>
       </c>
       <c r="F3" s="29">
@@ -17998,7 +18052,7 @@
       <c r="A4">
         <v>1997</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="43">
         <v>9.1999999999999993</v>
       </c>
       <c r="F4" s="29">
@@ -18012,13 +18066,13 @@
       <c r="A5">
         <v>1998</v>
       </c>
-      <c r="D5" s="45"/>
+      <c r="D5" s="43"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1999</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="43">
         <v>10.5</v>
       </c>
       <c r="F6" s="29">
@@ -18032,7 +18086,7 @@
       <c r="A7">
         <v>2000</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="43">
         <v>10.5</v>
       </c>
       <c r="F7" s="29">
@@ -18046,7 +18100,7 @@
       <c r="A8">
         <v>2001</v>
       </c>
-      <c r="D8" s="45"/>
+      <c r="D8" s="43"/>
       <c r="J8">
         <v>25</v>
       </c>
@@ -18058,7 +18112,7 @@
       <c r="A9">
         <v>2002</v>
       </c>
-      <c r="D9" s="45"/>
+      <c r="D9" s="43"/>
       <c r="G9">
         <f>E13*0.001/F13</f>
         <v>8.8888888888888892E-2</v>
@@ -18077,7 +18131,7 @@
       <c r="A10">
         <v>2003</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="43">
         <v>7</v>
       </c>
       <c r="E10">
@@ -18115,7 +18169,7 @@
       <c r="C11">
         <v>6.5</v>
       </c>
-      <c r="D11" s="45"/>
+      <c r="D11" s="43"/>
       <c r="I11">
         <v>3</v>
       </c>
@@ -18154,7 +18208,7 @@
       <c r="C12">
         <v>21.4</v>
       </c>
-      <c r="D12" s="45"/>
+      <c r="D12" s="43"/>
       <c r="I12">
         <v>3</v>
       </c>
@@ -18196,7 +18250,7 @@
       <c r="C13">
         <v>60</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="43">
         <v>9</v>
       </c>
       <c r="E13">
@@ -18256,7 +18310,7 @@
       <c r="C14">
         <v>206</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="43">
         <f>E14*0.001/F14*100</f>
         <v>9.7222222222222232</v>
       </c>
@@ -18318,7 +18372,7 @@
       <c r="C15">
         <v>504</v>
       </c>
-      <c r="D15" s="45">
+      <c r="D15" s="43">
         <f t="shared" ref="D15:D17" si="0">E15*0.001/F15*100</f>
         <v>10.138888888888889</v>
       </c>
@@ -18370,7 +18424,7 @@
       <c r="C16">
         <v>1113</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="43">
         <f t="shared" si="0"/>
         <v>10.416666666666668</v>
       </c>
@@ -18425,7 +18479,7 @@
       <c r="C17">
         <v>1412</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="43">
         <f t="shared" si="0"/>
         <v>10.555555555555555</v>
       </c>
@@ -18479,7 +18533,7 @@
       <c r="A18">
         <v>2011</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="43">
         <v>12.8</v>
       </c>
       <c r="F18" s="29">
@@ -18499,7 +18553,7 @@
       <c r="A19">
         <v>2012</v>
       </c>
-      <c r="D19" s="45">
+      <c r="D19" s="43">
         <v>15.3</v>
       </c>
       <c r="F19" s="29">
@@ -18516,7 +18570,7 @@
       <c r="A20">
         <v>2013</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="43">
         <v>16.100000000000001</v>
       </c>
       <c r="F20" s="29">
@@ -18533,7 +18587,7 @@
       <c r="A21">
         <v>2014</v>
       </c>
-      <c r="D21" s="45">
+      <c r="D21" s="43">
         <v>17.5</v>
       </c>
       <c r="F21" s="29">
@@ -18553,7 +18607,7 @@
       <c r="A22">
         <v>2015</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="43">
         <v>18.600000000000001</v>
       </c>
       <c r="F22" s="29">
@@ -18573,7 +18627,7 @@
       <c r="A23">
         <v>2016</v>
       </c>
-      <c r="D23" s="45"/>
+      <c r="D23" s="43"/>
       <c r="H23">
         <v>0.3</v>
       </c>
@@ -18585,7 +18639,7 @@
       <c r="A24">
         <v>2017</v>
       </c>
-      <c r="D24" s="45"/>
+      <c r="D24" s="43"/>
       <c r="H24">
         <v>0.3</v>
       </c>
@@ -18598,7 +18652,7 @@
       <c r="A25">
         <v>2018</v>
       </c>
-      <c r="D25" s="45"/>
+      <c r="D25" s="43"/>
       <c r="H25">
         <v>0.3</v>
       </c>
@@ -18610,7 +18664,7 @@
       <c r="A26">
         <v>2019</v>
       </c>
-      <c r="D26" s="45">
+      <c r="D26" s="43">
         <v>19</v>
       </c>
       <c r="F26" s="29">
@@ -18633,7 +18687,7 @@
       <c r="A27">
         <v>2020</v>
       </c>
-      <c r="D27" s="45"/>
+      <c r="D27" s="43"/>
       <c r="H27">
         <v>0.3</v>
       </c>
@@ -18648,7 +18702,7 @@
       <c r="A28">
         <v>2021</v>
       </c>
-      <c r="D28" s="45"/>
+      <c r="D28" s="43"/>
       <c r="H28">
         <v>0.3</v>
       </c>
@@ -18663,7 +18717,7 @@
       <c r="A29">
         <v>2022</v>
       </c>
-      <c r="D29" s="45">
+      <c r="D29" s="43">
         <v>19.2</v>
       </c>
       <c r="E29">
@@ -18683,7 +18737,7 @@
       <c r="A30">
         <v>2023</v>
       </c>
-      <c r="D30" s="45">
+      <c r="D30" s="43">
         <v>19.3</v>
       </c>
       <c r="E30">
@@ -18709,13 +18763,13 @@
       <c r="A31">
         <v>2024</v>
       </c>
-      <c r="D31" s="45"/>
+      <c r="D31" s="43"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2025</v>
       </c>
-      <c r="D32" s="45">
+      <c r="D32" s="43">
         <v>24</v>
       </c>
       <c r="S32" t="s">
@@ -18729,7 +18783,7 @@
       <c r="A33">
         <v>2026</v>
       </c>
-      <c r="D33" s="45"/>
+      <c r="D33" s="43"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34">
@@ -18737,9 +18791,9 @@
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
-      <c r="D34" s="47"/>
+      <c r="D34" s="45"/>
       <c r="E34" s="22"/>
-      <c r="F34" s="46"/>
+      <c r="F34" s="44"/>
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
       <c r="I34" s="22"/>
@@ -18768,19 +18822,19 @@
       <c r="A35">
         <v>2028</v>
       </c>
-      <c r="D35" s="45"/>
+      <c r="D35" s="43"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2029</v>
       </c>
-      <c r="D36" s="45"/>
+      <c r="D36" s="43"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2030</v>
       </c>
-      <c r="D37" s="45"/>
+      <c r="D37" s="43"/>
       <c r="S37" t="s">
         <v>361</v>
       </c>
@@ -18792,13 +18846,13 @@
       <c r="A38">
         <v>2031</v>
       </c>
-      <c r="D38" s="45"/>
+      <c r="D38" s="43"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2032</v>
       </c>
-      <c r="D39" s="45"/>
+      <c r="D39" s="43"/>
       <c r="S39" s="8" t="s">
         <v>369</v>
       </c>
@@ -18810,7 +18864,7 @@
       <c r="A40">
         <v>2033</v>
       </c>
-      <c r="D40" s="45"/>
+      <c r="D40" s="43"/>
       <c r="T40" t="s">
         <v>371</v>
       </c>
@@ -18819,7 +18873,7 @@
       <c r="A41">
         <v>2034</v>
       </c>
-      <c r="D41" s="45"/>
+      <c r="D41" s="43"/>
       <c r="T41" t="s">
         <v>372</v>
       </c>
@@ -18828,10 +18882,10 @@
       <c r="A42">
         <v>2035</v>
       </c>
-      <c r="D42" s="45">
+      <c r="D42" s="43">
         <v>26</v>
       </c>
-      <c r="T42" s="58" t="s">
+      <c r="T42" s="56" t="s">
         <v>373</v>
       </c>
     </row>
@@ -18839,7 +18893,7 @@
       <c r="A43">
         <v>2036</v>
       </c>
-      <c r="D43" s="45"/>
+      <c r="D43" s="43"/>
       <c r="T43" t="s">
         <v>374</v>
       </c>
@@ -18848,7 +18902,7 @@
       <c r="A44">
         <v>2037</v>
       </c>
-      <c r="D44" s="45"/>
+      <c r="D44" s="43"/>
       <c r="T44" t="s">
         <v>375</v>
       </c>
@@ -18857,7 +18911,7 @@
       <c r="A45">
         <v>2038</v>
       </c>
-      <c r="D45" s="45"/>
+      <c r="D45" s="43"/>
       <c r="T45" t="s">
         <v>376</v>
       </c>
@@ -18872,7 +18926,7 @@
       <c r="A46">
         <v>2039</v>
       </c>
-      <c r="D46" s="45"/>
+      <c r="D46" s="43"/>
       <c r="T46" t="s">
         <v>378</v>
       </c>
@@ -18891,7 +18945,7 @@
       <c r="A47">
         <v>2040</v>
       </c>
-      <c r="D47" s="45"/>
+      <c r="D47" s="43"/>
       <c r="T47" t="s">
         <v>380</v>
       </c>
@@ -18900,61 +18954,61 @@
       <c r="A48">
         <v>2041</v>
       </c>
-      <c r="D48" s="45"/>
+      <c r="D48" s="43"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2042</v>
       </c>
-      <c r="D49" s="45"/>
+      <c r="D49" s="43"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2043</v>
       </c>
-      <c r="D50" s="45"/>
+      <c r="D50" s="43"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2044</v>
       </c>
-      <c r="D51" s="45"/>
+      <c r="D51" s="43"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2045</v>
       </c>
-      <c r="D52" s="45"/>
+      <c r="D52" s="43"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2046</v>
       </c>
-      <c r="D53" s="45"/>
+      <c r="D53" s="43"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2047</v>
       </c>
-      <c r="D54" s="45"/>
+      <c r="D54" s="43"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2048</v>
       </c>
-      <c r="D55" s="45"/>
+      <c r="D55" s="43"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2049</v>
       </c>
-      <c r="D56" s="45"/>
+      <c r="D56" s="43"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2050</v>
       </c>
-      <c r="D57" s="45">
+      <c r="D57" s="43">
         <v>26.5</v>
       </c>
     </row>
@@ -18971,10 +19025,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93111AE8-A8F8-E14B-8662-08DE90BF3B12}">
-  <dimension ref="A1:AM34"/>
+  <dimension ref="A1:AT37"/>
   <sheetViews>
-    <sheetView zoomScale="50" workbookViewId="0">
-      <selection sqref="A1:BJ41"/>
+    <sheetView zoomScale="83" workbookViewId="0">
+      <selection activeCell="AI37" sqref="AI37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19014,7 +19068,7 @@
       <c r="A4" t="s">
         <v>385</v>
       </c>
-      <c r="B4" s="59"/>
+      <c r="B4" s="57"/>
       <c r="AI4" t="s">
         <v>417</v>
       </c>
@@ -19136,8 +19190,11 @@
       <c r="F16">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>388</v>
       </c>
@@ -19147,8 +19204,11 @@
       <c r="F17">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>389</v>
       </c>
@@ -19158,8 +19218,11 @@
       <c r="F18">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>390</v>
       </c>
@@ -19169,8 +19232,11 @@
       <c r="F19">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>391</v>
       </c>
@@ -19180,8 +19246,11 @@
       <c r="F20">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>409</v>
       </c>
@@ -19191,8 +19260,11 @@
       <c r="F21">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>392</v>
       </c>
@@ -19202,8 +19274,11 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>394</v>
       </c>
@@ -19295,7 +19370,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -19308,11 +19383,17 @@
       <c r="E25">
         <v>0.42</v>
       </c>
+      <c r="F25">
+        <v>0.45</v>
+      </c>
+      <c r="K25">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="AI25" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>397</v>
       </c>
@@ -19322,11 +19403,14 @@
       <c r="E26">
         <v>0.12</v>
       </c>
+      <c r="F26">
+        <v>0.13</v>
+      </c>
       <c r="AI26" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>398</v>
       </c>
@@ -19336,11 +19420,14 @@
       <c r="E27">
         <v>0.15</v>
       </c>
+      <c r="F27">
+        <v>0.12</v>
+      </c>
       <c r="AI27" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>74</v>
       </c>
@@ -19350,11 +19437,17 @@
       <c r="E28">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="F28">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="AI28" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AT28" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>172</v>
       </c>
@@ -19364,16 +19457,25 @@
       <c r="E29">
         <v>0.24</v>
       </c>
+      <c r="F29">
+        <v>0.23</v>
+      </c>
       <c r="AI29" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AT29" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
       <c r="AI30" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AT30" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
       <c r="AI31" t="s">
         <v>429</v>
       </c>
@@ -19381,7 +19483,7 @@
         <v>3973</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
       <c r="AI32" t="s">
         <v>430</v>
       </c>
@@ -19414,29 +19516,56 @@
         <v>89.3</v>
       </c>
     </row>
+    <row r="37" spans="35:39" x14ac:dyDescent="0.2">
+      <c r="AI37" s="8" t="s">
+        <v>458</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="AI1" r:id="rId1" xr:uid="{2A7002B9-B77C-3845-90F3-2D404A7AB926}"/>
+    <hyperlink ref="AI37" r:id="rId2" xr:uid="{2A0E8A7D-B0E7-4F4B-A243-133D29E9361E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9844000F-E031-BE4E-B735-638473E7D39E}">
-  <dimension ref="A1:AA33"/>
+  <dimension ref="A1:AL33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="27.83203125" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" customWidth="1"/>
+    <col min="14" max="14" width="23.33203125" customWidth="1"/>
+    <col min="15" max="15" width="28.33203125" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" customWidth="1"/>
+    <col min="17" max="17" width="31.6640625" customWidth="1"/>
+    <col min="18" max="18" width="26.5" customWidth="1"/>
+    <col min="19" max="19" width="22.6640625" customWidth="1"/>
+    <col min="20" max="20" width="32.1640625" customWidth="1"/>
+    <col min="21" max="21" width="26.83203125" customWidth="1"/>
+    <col min="22" max="22" width="22" customWidth="1"/>
+    <col min="23" max="23" width="27.83203125" customWidth="1"/>
+    <col min="24" max="24" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -19467,56 +19596,111 @@
       <c r="J1" t="s">
         <v>424</v>
       </c>
-      <c r="O1" t="s">
+      <c r="L1" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="M1" s="62" t="s">
+        <v>412</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1991</v>
       </c>
-      <c r="B2" s="61">
+      <c r="B2">
         <v>1680</v>
       </c>
-      <c r="C2" s="60">
+      <c r="C2" s="58">
         <v>2040</v>
       </c>
       <c r="D2">
         <v>448</v>
       </c>
-      <c r="E2" s="60">
+      <c r="E2" s="58">
         <v>3080</v>
       </c>
-      <c r="F2" s="62">
+      <c r="F2" s="59">
         <v>2.0099999999999998</v>
       </c>
-      <c r="G2" s="60">
+      <c r="G2" s="58">
         <v>46</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="8" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1992</v>
       </c>
-      <c r="B3" s="61">
+      <c r="B3">
         <v>1620</v>
       </c>
-      <c r="C3" s="60">
+      <c r="C3" s="58">
         <v>1960</v>
       </c>
       <c r="D3">
         <v>213</v>
       </c>
-      <c r="E3" s="60">
+      <c r="E3" s="58">
         <v>3330</v>
       </c>
-      <c r="F3" s="62">
+      <c r="F3" s="59">
         <v>0.91</v>
       </c>
       <c r="G3">
@@ -19525,24 +19709,42 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1993</v>
       </c>
-      <c r="B4" s="61">
+      <c r="B4">
         <v>1090</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="58">
         <v>1420</v>
       </c>
       <c r="D4">
         <v>38</v>
       </c>
-      <c r="E4" s="60">
+      <c r="E4" s="58">
         <v>2940</v>
       </c>
-      <c r="F4" s="62">
+      <c r="F4" s="59">
         <v>0.45</v>
       </c>
       <c r="G4">
@@ -19557,30 +19759,49 @@
       <c r="J4">
         <v>95</v>
       </c>
-      <c r="O4" t="s">
+      <c r="L4">
+        <f>0.94*0.96</f>
+        <v>0.90239999999999987</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="s">
         <v>423</v>
       </c>
-      <c r="P4" t="s">
+      <c r="AA4" s="8" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1994</v>
       </c>
-      <c r="B5" s="61">
+      <c r="B5">
         <v>1010</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="58">
         <v>1110</v>
       </c>
       <c r="D5">
         <v>1450</v>
       </c>
-      <c r="E5" s="60">
+      <c r="E5" s="58">
         <v>1020</v>
       </c>
-      <c r="F5" s="62">
+      <c r="F5" s="59">
         <v>1.1299999999999999</v>
       </c>
       <c r="G5">
@@ -19589,24 +19810,49 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>94</v>
+      </c>
+      <c r="J5">
+        <v>95</v>
+      </c>
+      <c r="L5">
+        <f>0.94*0.96</f>
+        <v>0.90239999999999987</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1995</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6">
         <v>1270</v>
       </c>
-      <c r="C6" s="60">
+      <c r="C6" s="58">
         <v>848</v>
       </c>
       <c r="D6">
         <v>1050</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="58">
         <v>1600</v>
       </c>
-      <c r="F6" s="62">
+      <c r="F6" s="59">
         <v>1.84</v>
       </c>
       <c r="G6">
@@ -19615,33 +19861,58 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="O6" t="s">
+      <c r="I6">
+        <v>94</v>
+      </c>
+      <c r="J6">
+        <v>95</v>
+      </c>
+      <c r="L6">
+        <f>0.94*0.96</f>
+        <v>0.90239999999999987</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="s">
         <v>406</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="AB6" t="s">
         <v>411</v>
       </c>
-      <c r="AA6" s="8" t="s">
+      <c r="AL6" s="8" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1996</v>
       </c>
-      <c r="B7" s="61">
+      <c r="B7">
         <v>1530</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="58">
         <v>843</v>
       </c>
       <c r="D7">
         <v>201</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="58">
         <v>2250</v>
       </c>
-      <c r="F7" s="62">
+      <c r="F7" s="59">
         <v>1.24</v>
       </c>
       <c r="G7">
@@ -19650,192 +19921,696 @@
       <c r="H7">
         <v>5</v>
       </c>
-      <c r="O7" t="s">
+      <c r="I7">
+        <v>94</v>
+      </c>
+      <c r="J7">
+        <v>95</v>
+      </c>
+      <c r="L7">
+        <f>0.94*0.96</f>
+        <v>0.90239999999999987</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="s">
         <v>413</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="AB7" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1997</v>
       </c>
-      <c r="F8" s="62"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B8" s="58">
+        <v>2060</v>
+      </c>
+      <c r="C8" s="58">
+        <v>790</v>
+      </c>
+      <c r="D8">
+        <v>554</v>
+      </c>
+      <c r="E8" s="58">
+        <v>2510</v>
+      </c>
+      <c r="F8" s="59">
+        <v>0.51</v>
+      </c>
+      <c r="G8" s="58">
+        <v>19</v>
+      </c>
+      <c r="I8">
+        <v>94</v>
+      </c>
+      <c r="J8">
+        <v>95</v>
+      </c>
+      <c r="L8">
+        <f>0.94*0.96</f>
+        <v>0.90239999999999987</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1998</v>
       </c>
-      <c r="F9" s="62"/>
-      <c r="O9">
+      <c r="F9" s="59"/>
+      <c r="I9">
+        <v>94</v>
+      </c>
+      <c r="J9">
+        <v>95</v>
+      </c>
+      <c r="L9">
+        <f>0.94*0.96</f>
+        <v>0.90239999999999987</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1999</v>
       </c>
-      <c r="F10" s="62"/>
-      <c r="O10">
-        <f>O9*0.94</f>
+      <c r="F10" s="59"/>
+      <c r="I10">
         <v>94</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>95</v>
+      </c>
+      <c r="L10">
+        <f>0.94*0.96</f>
+        <v>0.90239999999999987</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <f>Z9*0.94</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2000</v>
       </c>
-      <c r="F11" s="62"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="O11">
-        <f>O10*0.95</f>
+      <c r="F11" s="59"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58">
+        <v>85</v>
+      </c>
+      <c r="I11">
+        <v>94</v>
+      </c>
+      <c r="J11">
+        <v>95</v>
+      </c>
+      <c r="K11" s="58"/>
+      <c r="L11">
+        <f>0.94*0.96</f>
+        <v>0.90239999999999987</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <f>Z10*0.95</f>
         <v>89.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA11" t="s">
+        <v>456</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2001</v>
       </c>
-      <c r="F12" s="62"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F12" s="59"/>
+      <c r="I12">
+        <v>94</v>
+      </c>
+      <c r="J12">
+        <v>95</v>
+      </c>
+      <c r="L12">
+        <f>0.94*0.96</f>
+        <v>0.90239999999999987</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="N12">
+        <v>94.7</v>
+      </c>
+      <c r="O12">
+        <v>15</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="T12" s="25">
+        <v>100</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>15</v>
+      </c>
+      <c r="W12">
+        <v>100</v>
+      </c>
+      <c r="X12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2002</v>
       </c>
-      <c r="F13" s="62"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F13" s="59"/>
+      <c r="T13" s="25">
+        <v>100</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>100</v>
+      </c>
+      <c r="W13">
+        <v>100</v>
+      </c>
+      <c r="X13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2003</v>
       </c>
-      <c r="F14" s="62"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F14" s="59"/>
+      <c r="T14" s="25">
+        <v>100</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>100</v>
+      </c>
+      <c r="W14">
+        <v>100</v>
+      </c>
+      <c r="X14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2004</v>
       </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="E15" s="58"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="T15" s="25">
+        <v>100</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>100</v>
+      </c>
+      <c r="W15">
+        <v>100</v>
+      </c>
+      <c r="X15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2005</v>
       </c>
-      <c r="F16" s="62"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F16" s="59"/>
+      <c r="T16" s="25">
+        <v>100</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>100</v>
+      </c>
+      <c r="W16">
+        <v>100</v>
+      </c>
+      <c r="X16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2006</v>
       </c>
-      <c r="F17" s="62"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="59"/>
+      <c r="T17" s="25">
+        <v>100</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>100</v>
+      </c>
+      <c r="W17">
+        <v>100</v>
+      </c>
+      <c r="X17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2007</v>
       </c>
-      <c r="F18" s="62"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="59"/>
+      <c r="T18" s="25">
+        <v>100</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>100</v>
+      </c>
+      <c r="W18">
+        <v>100</v>
+      </c>
+      <c r="X18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2008</v>
       </c>
-      <c r="F19" s="62"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="59"/>
+      <c r="T19" s="25">
+        <v>100</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>100</v>
+      </c>
+      <c r="W19">
+        <v>100</v>
+      </c>
+      <c r="X19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2009</v>
       </c>
-      <c r="F20" s="62"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F20" s="59"/>
+      <c r="T20" s="25">
+        <v>100</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>100</v>
+      </c>
+      <c r="W20">
+        <v>100</v>
+      </c>
+      <c r="X20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2010</v>
       </c>
-      <c r="F21" s="62"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F21" s="59"/>
+      <c r="T21" s="25">
+        <v>100</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>100</v>
+      </c>
+      <c r="W21">
+        <v>100</v>
+      </c>
+      <c r="X21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2011</v>
       </c>
-      <c r="F22" s="62"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F22" s="59"/>
+      <c r="T22" s="25">
+        <v>100</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>100</v>
+      </c>
+      <c r="W22">
+        <v>100</v>
+      </c>
+      <c r="X22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2012</v>
       </c>
-      <c r="F23" s="62"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F23" s="59"/>
+      <c r="T23" s="25">
+        <v>100</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>100</v>
+      </c>
+      <c r="W23">
+        <v>100</v>
+      </c>
+      <c r="X23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2013</v>
       </c>
-      <c r="F24" s="62"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F24" s="59"/>
+      <c r="T24" s="25">
+        <v>100</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>100</v>
+      </c>
+      <c r="W24">
+        <v>100</v>
+      </c>
+      <c r="X24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2014</v>
       </c>
-      <c r="F25" s="62"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F25" s="59"/>
+      <c r="T25" s="25">
+        <v>100</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>100</v>
+      </c>
+      <c r="W25">
+        <v>100</v>
+      </c>
+      <c r="X25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2015</v>
       </c>
-      <c r="F26" s="62"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F26" s="59"/>
+      <c r="T26" s="25">
+        <v>100</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>100</v>
+      </c>
+      <c r="W26">
+        <v>100</v>
+      </c>
+      <c r="X26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2016</v>
       </c>
-      <c r="F27" s="62"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F27" s="59"/>
+      <c r="T27" s="25">
+        <v>100</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>100</v>
+      </c>
+      <c r="W27">
+        <v>100</v>
+      </c>
+      <c r="X27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2017</v>
       </c>
-      <c r="F28" s="62"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F28" s="59"/>
+      <c r="T28" s="25">
+        <v>100</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>100</v>
+      </c>
+      <c r="W28">
+        <v>100</v>
+      </c>
+      <c r="X28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2018</v>
       </c>
-      <c r="F29" s="62"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F29" s="59"/>
+      <c r="T29" s="25">
+        <v>100</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>100</v>
+      </c>
+      <c r="W29">
+        <v>100</v>
+      </c>
+      <c r="X29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2019</v>
       </c>
-      <c r="F30" s="62"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F30" s="59"/>
+      <c r="T30" s="25">
+        <v>100</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>100</v>
+      </c>
+      <c r="W30">
+        <v>100</v>
+      </c>
+      <c r="X30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2020</v>
       </c>
-      <c r="F31" s="62"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F31" s="59"/>
+      <c r="T31" s="25">
+        <v>100</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>100</v>
+      </c>
+      <c r="W31">
+        <v>100</v>
+      </c>
+      <c r="X31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2021</v>
       </c>
-      <c r="F32" s="62"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F32" s="59"/>
+      <c r="T32" s="25">
+        <v>100</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>100</v>
+      </c>
+      <c r="W32">
+        <v>100</v>
+      </c>
+      <c r="X32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2022</v>
       </c>
-      <c r="F33" s="62"/>
+      <c r="F33" s="59"/>
+      <c r="T33" s="25">
+        <v>100</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>100</v>
+      </c>
+      <c r="W33">
+        <v>100</v>
+      </c>
+      <c r="X33">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{62B25517-D091-574E-B7C4-E2F06E8BC6EF}"/>
-    <hyperlink ref="AA6" r:id="rId2" xr:uid="{98FBA73F-C146-0043-BF5E-6ABF4CCB8269}"/>
+    <hyperlink ref="Z2" r:id="rId1" xr:uid="{62B25517-D091-574E-B7C4-E2F06E8BC6EF}"/>
+    <hyperlink ref="AL6" r:id="rId2" xr:uid="{98FBA73F-C146-0043-BF5E-6ABF4CCB8269}"/>
+    <hyperlink ref="AA4" r:id="rId3" xr:uid="{2E3D3453-879B-BB43-9E4A-1ACA76959312}"/>
+    <hyperlink ref="M12" r:id="rId4" display="Cadmium material flows" xr:uid="{288F6F1C-294B-7640-9AB0-06FD7FB4D031}"/>
+    <hyperlink ref="P12" r:id="rId5" display="https://pubs.usgs.gov/circ/c1196o/" xr:uid="{8564AA03-C1F3-9A46-9774-CEBE590F0602}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19845,7 +20620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923DB2F7-CE57-B240-BD84-E301A083E957}">
   <dimension ref="A1:AK30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+    <sheetView zoomScale="93" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -19889,7 +20664,7 @@
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="57" t="s">
         <v>437</v>
       </c>
     </row>
